--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>16</t>
+    <t>7</t>
   </si>
   <si>
     <t>Level</t>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Commentaire au niveau de la ligne de prescription</t>
+  </si>
+  <si>
+    <t>LIPRESCRENSCOMP</t>
+  </si>
+  <si>
+    <t>Renseignement complémentaire textuel</t>
   </si>
   <si>
     <t>MEDIND</t>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,6 +580,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>Commentaire au niveau du médicament prescrit</t>
+  </si>
+  <si>
+    <t>LIPRESCCONDAPPL</t>
+  </si>
+  <si>
+    <t>Conditions d’application de la ligne de prescription</t>
+  </si>
+  <si>
+    <t>LIPRESCLIBMED</t>
+  </si>
+  <si>
+    <t>Libellé textuel du médicament prescrit</t>
+  </si>
+  <si>
+    <t>LIPRESCPOS</t>
+  </si>
+  <si>
+    <t>Libellé textuel de la posologie</t>
   </si>
 </sst>
 </file>
@@ -488,7 +506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,6 +610,42 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-note-scope-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
